--- a/getData/レースデータ_完成.xlsx
+++ b/getData/レースデータ_完成.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190468\Desktop\IT開発\Mango\getData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1064D-3162-4524-82C7-7A61BE946553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FBA0E9-0F8D-49E3-B0D4-1CAFECE97862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="17670" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="518">
   <si>
     <t>GⅢ</t>
   </si>
@@ -1572,6 +1572,10 @@
   </si>
   <si>
     <t>雪</t>
+  </si>
+  <si>
+    <t>農林水産省賞典愛知杯</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1929,18 +1933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -2108,7 +2108,7 @@
         <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>517</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
